--- a/biology/Médecine/Facteur_rhumatoïde/Facteur_rhumatoïde.xlsx
+++ b/biology/Médecine/Facteur_rhumatoïde/Facteur_rhumatoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_rhumato%C3%AFde</t>
+          <t>Facteur_rhumatoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur rhumatoïde est une immunoglobuline anti-IgG dirigée contre le fragment Fc.
 Les FR agglutinants sont par définition toujours des IgM détectables par les tests d'agglutination classiques utilisant des billes de latex ou des globules rouges (test de Waaler-Rose) recouverts d'IgG ou par des tests immunologiques (néphélométrie, dosage immuno-enzymatique),
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteur_rhumato%C3%AFde</t>
+          <t>Facteur_rhumatoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,47 +525,121 @@
           <t>Recherche de facteurs rhumatoïdes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche de facteurs rhumatoïdes ne se justifie que dans une circonstance : un rhumatisme inflammatoire débutant en particulier dans les formes oligo- et poly-articulaires.
-Techniques de recherche
-Le test idéal est un test quantitatif et reproductible. Les tests les plus utilisés sont immunoenzymatiques (ELISA) ou néphélométriques :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Facteur_rhumatoïde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facteur_rhumato%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Recherche de facteurs rhumatoïdes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Techniques de recherche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test idéal est un test quantitatif et reproductible. Les tests les plus utilisés sont immunoenzymatiques (ELISA) ou néphélométriques :
 Les facteurs rhumatoïdes IgM sont exprimés en UI par millilitre;
 Les facteurs rhumatoïdes IgA sont exprimés en Unité par millilitre car il n'existe pas de témoin international validé.
 Les tests d'agglutination (Latex et Waaler-Rose) sont toujours utilisés mais sont fastidieux et moins reproductibles.
 Le coût de cet examen est d'environ 11 €.
-Interprétation des résultats
-Ils peuvent être considérés comme positifs si le titre est &gt; 1/64 pour les méthodes d'agglutination et la valeur &gt; 20 UI/mL pour les FR IgM détectés en ELISA ou en néphélométrie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Facteur_rhumatoïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facteur_rhumato%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Recherche de facteurs rhumatoïdes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Interprétation des résultats</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent être considérés comme positifs si le titre est &gt; 1/64 pour les méthodes d'agglutination et la valeur &gt; 20 UI/mL pour les FR IgM détectés en ELISA ou en néphélométrie.
 Il n'y a pas de valeur validée pour les FR IgA.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Facteur_rhumato%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facteur_rhumatoïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Facteur_rhumato%C3%AFde</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>La polyarthrite rhumatoïde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>les FR IgM ont une assez bonne valeur diagnostique dans la PR avec une sensibilité et une spécificité de l'ordre de 80 à 85 % mais :
 La valeur diagnostique des FR dépend du type et de la durée d'évolution de la PR
@@ -566,31 +652,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Facteur_rhumato%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Facteur_rhumatoïde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Facteur_rhumato%C3%AFde</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prévalence des facteurs rhumatoïdes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
